--- a/Color Code Conversion.xlsx
+++ b/Color Code Conversion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOTN Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2BCC5E1-0230-439A-8B3F-CF6B00A1A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE7B53-A570-480C-BA98-58FECD699427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{568115BD-1A63-4C6F-990B-0248BF67F7B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{568115BD-1A63-4C6F-990B-0248BF67F7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
-    <t>FFFFFF</t>
-  </si>
-  <si>
-    <t>FFF8AD</t>
-  </si>
-  <si>
-    <t>FFE300</t>
-  </si>
-  <si>
-    <t>D8A000</t>
-  </si>
-  <si>
-    <t>7F3900</t>
-  </si>
-  <si>
-    <t>3F1000</t>
-  </si>
-  <si>
     <t>Broken down</t>
   </si>
   <si>
@@ -64,6 +46,24 @@
   </si>
   <si>
     <t>bitshifted Decimal</t>
+  </si>
+  <si>
+    <t>2f2f2f</t>
+  </si>
+  <si>
+    <t>3f3f3f</t>
+  </si>
+  <si>
+    <t>1d3024</t>
+  </si>
+  <si>
+    <t>3b5c47</t>
+  </si>
+  <si>
+    <t>5d8c6e</t>
+  </si>
+  <si>
+    <t>7cbf95</t>
   </si>
 </sst>
 </file>
@@ -99,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,27 +419,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0D65B-ABAA-4082-96AF-F7179814334A}">
-  <dimension ref="L1:AC8"/>
+  <dimension ref="L1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11:W25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="12:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:30" x14ac:dyDescent="0.25">
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -446,494 +450,518 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L2" t="s">
-        <v>0</v>
+    <row r="2" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="M2" t="str">
         <f>LEFT(L2,2)</f>
-        <v>FF</v>
+        <v>3f</v>
       </c>
       <c r="N2" t="str">
         <f>MID(L2,3,2)</f>
-        <v>FF</v>
+        <v>3f</v>
       </c>
       <c r="O2" t="str">
         <f>RIGHT(L2,2)</f>
-        <v>FF</v>
+        <v>3f</v>
       </c>
       <c r="P2">
         <f>HEX2DEC(M2)</f>
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:R2" si="0">HEX2DEC(N2)</f>
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="S2">
         <f>ROUNDDOWN(P2/8,0)</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:U2" si="1">ROUNDDOWN(Q2/8,0)</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="U2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="V2" t="str">
         <f>TEXT(DEC2BIN(S2),"00000000")</f>
-        <v>00011111</v>
+        <v>00000111</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:X2" si="2">TEXT(DEC2BIN(T2),"00000000")</f>
-        <v>00011111</v>
+        <v>00000111</v>
       </c>
       <c r="X2" t="str">
         <f t="shared" si="2"/>
-        <v>00011111</v>
+        <v>00000111</v>
       </c>
       <c r="Y2">
-        <f>S2</f>
-        <v>31</v>
+        <f t="shared" ref="Y2:Y7" si="3">S2</f>
+        <v>7</v>
       </c>
       <c r="Z2">
-        <f>_xlfn.BITLSHIFT(T2,5)</f>
-        <v>992</v>
+        <f t="shared" ref="Z2:Z7" si="4">_xlfn.BITLSHIFT(T2,5)</f>
+        <v>224</v>
       </c>
       <c r="AA2">
-        <f>_xlfn.BITLSHIFT(U2,10)</f>
-        <v>31744</v>
+        <f t="shared" ref="AA2:AA7" si="5">_xlfn.BITLSHIFT(U2,10)</f>
+        <v>7168</v>
       </c>
       <c r="AB2">
         <f>SUM(Y2:AA2)+32768</f>
-        <v>65535</v>
+        <v>40167</v>
       </c>
       <c r="AC2" t="str">
         <f>DEC2HEX(AB2)</f>
-        <v>FFFF</v>
+        <v>9CE7</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>RIGHT(AC2,2) &amp; LEFT(AC2,2)</f>
+        <v>E79C</v>
       </c>
     </row>
-    <row r="3" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L3" t="s">
-        <v>1</v>
+    <row r="3" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M7" si="3">LEFT(L3,2)</f>
-        <v>FF</v>
+        <f t="shared" ref="M3:M7" si="6">LEFT(L3,2)</f>
+        <v>2f</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N7" si="4">MID(L3,3,2)</f>
-        <v>F8</v>
+        <f t="shared" ref="N3:N7" si="7">MID(L3,3,2)</f>
+        <v>2f</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O7" si="5">RIGHT(L3,2)</f>
-        <v>AD</v>
+        <f t="shared" ref="O3:O7" si="8">RIGHT(L3,2)</f>
+        <v>2f</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P7" si="6">HEX2DEC(M3)</f>
-        <v>255</v>
+        <f t="shared" ref="P3:P7" si="9">HEX2DEC(M3)</f>
+        <v>47</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="7">HEX2DEC(N3)</f>
-        <v>248</v>
+        <f t="shared" ref="Q3:Q7" si="10">HEX2DEC(N3)</f>
+        <v>47</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="8">HEX2DEC(O3)</f>
-        <v>173</v>
+        <f t="shared" ref="R3:R7" si="11">HEX2DEC(O3)</f>
+        <v>47</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="9">ROUNDDOWN(P3/8,0)</f>
-        <v>31</v>
+        <f t="shared" ref="S3:S7" si="12">ROUNDDOWN(P3/8,0)</f>
+        <v>5</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="10">ROUNDDOWN(Q3/8,0)</f>
-        <v>31</v>
+        <f t="shared" ref="T3:T7" si="13">ROUNDDOWN(Q3/8,0)</f>
+        <v>5</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="11">ROUNDDOWN(R3/8,0)</f>
-        <v>21</v>
+        <f t="shared" ref="U3:U7" si="14">ROUNDDOWN(R3/8,0)</f>
+        <v>5</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V7" si="12">TEXT(DEC2BIN(S3),"00000000")</f>
-        <v>00011111</v>
+        <f t="shared" ref="V3:V7" si="15">TEXT(DEC2BIN(S3),"00000000")</f>
+        <v>00000101</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W7" si="13">TEXT(DEC2BIN(T3),"00000000")</f>
-        <v>00011111</v>
+        <f t="shared" ref="W3:W7" si="16">TEXT(DEC2BIN(T3),"00000000")</f>
+        <v>00000101</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X7" si="14">TEXT(DEC2BIN(U3),"00000000")</f>
-        <v>00010101</v>
+        <f t="shared" ref="X3:X7" si="17">TEXT(DEC2BIN(U3),"00000000")</f>
+        <v>00000101</v>
       </c>
       <c r="Y3">
-        <f>S3</f>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <f>_xlfn.BITLSHIFT(T3,5)</f>
-        <v>992</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="AA3">
-        <f>_xlfn.BITLSHIFT(U3,10)</f>
-        <v>21504</v>
+        <f t="shared" si="5"/>
+        <v>5120</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB7" si="15">SUM(Y3:AA3)+32768</f>
-        <v>55295</v>
+        <f t="shared" ref="AB3:AB7" si="18">SUM(Y3:AA3)+32768</f>
+        <v>38053</v>
       </c>
       <c r="AC3" t="str">
         <f>DEC2HEX(AB3)</f>
-        <v>D7FF</v>
+        <v>94A5</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" ref="AD3:AD7" si="19">RIGHT(AC3,2) &amp; LEFT(AC3,2)</f>
+        <v>A594</v>
       </c>
     </row>
-    <row r="4" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
-        <v>2</v>
+    <row r="4" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="M4" t="str">
+        <f t="shared" si="6"/>
+        <v>7c</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>bf</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="15"/>
+        <v>00001111</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="16"/>
+        <v>00010111</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="17"/>
+        <v>00010010</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="3"/>
-        <v>FF</v>
-      </c>
-      <c r="N4" t="str">
+        <v>15</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="4"/>
-        <v>E3</v>
-      </c>
-      <c r="O4" t="str">
+        <v>736</v>
+      </c>
+      <c r="AA4">
         <f t="shared" si="5"/>
-        <v>00</v>
-      </c>
-      <c r="P4">
+        <v>18432</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="18"/>
+        <v>51951</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC7" si="20">DEC2HEX(AB4)</f>
+        <v>CAEF</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="19"/>
+        <v>EFCA</v>
+      </c>
+    </row>
+    <row r="5" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="Q4">
+        <v>5d</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="7"/>
-        <v>227</v>
-      </c>
-      <c r="R4">
+        <v>8c</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
+        <v>6e</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="T4">
+        <v>93</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="U4">
+        <v>140</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V4" t="str">
+        <v>110</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="12"/>
-        <v>00011111</v>
-      </c>
-      <c r="W4" t="str">
+        <v>11</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="13"/>
-        <v>00011100</v>
-      </c>
-      <c r="X4" t="str">
+        <v>17</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="14"/>
-        <v>00000000</v>
-      </c>
-      <c r="Y4">
-        <f>S4</f>
-        <v>31</v>
-      </c>
-      <c r="Z4">
-        <f>_xlfn.BITLSHIFT(T4,5)</f>
-        <v>896</v>
-      </c>
-      <c r="AA4">
-        <f>_xlfn.BITLSHIFT(U4,10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4">
+        <v>13</v>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="15"/>
-        <v>33695</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" ref="AC3:AC7" si="16">DEC2HEX(AB4)</f>
-        <v>839F</v>
+        <v>00001011</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="16"/>
+        <v>00010001</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="17"/>
+        <v>00001101</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>544</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="5"/>
+        <v>13312</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="18"/>
+        <v>46635</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="20"/>
+        <v>B62B</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="19"/>
+        <v>2BB6</v>
       </c>
     </row>
-    <row r="5" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
+    <row r="6" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v>3b</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>5c</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="15"/>
+        <v>00000111</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="16"/>
+        <v>00001011</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="17"/>
+        <v>00001000</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>352</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="18"/>
+        <v>41319</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="20"/>
+        <v>A167</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="19"/>
+        <v>67A1</v>
+      </c>
+    </row>
+    <row r="7" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>1d</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="M5" t="str">
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="15"/>
+        <v>00000011</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="16"/>
+        <v>00000110</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="17"/>
+        <v>00000100</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="3"/>
-        <v>D8</v>
-      </c>
-      <c r="N5" t="str">
+        <v>3</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="4"/>
-        <v>A0</v>
-      </c>
-      <c r="O5" t="str">
+        <v>192</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="5"/>
-        <v>00</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="6"/>
-        <v>216</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="12"/>
-        <v>00011011</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="13"/>
-        <v>00010100</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="14"/>
-        <v>00000000</v>
-      </c>
-      <c r="Y5">
-        <f>S5</f>
-        <v>27</v>
-      </c>
-      <c r="Z5">
-        <f>_xlfn.BITLSHIFT(T5,5)</f>
-        <v>640</v>
-      </c>
-      <c r="AA5">
-        <f>_xlfn.BITLSHIFT(U5,10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="15"/>
-        <v>33435</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="16"/>
-        <v>829B</v>
+        <v>4096</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="18"/>
+        <v>37059</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="20"/>
+        <v>90C3</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="19"/>
+        <v>C390</v>
       </c>
     </row>
-    <row r="6" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
+    <row r="8" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v>7F</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="6"/>
-        <v>127</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="12"/>
-        <v>00001111</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="13"/>
-        <v>00000111</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="14"/>
-        <v>00000000</v>
-      </c>
-      <c r="Y6">
-        <f>S6</f>
-        <v>15</v>
-      </c>
-      <c r="Z6">
-        <f>_xlfn.BITLSHIFT(T6,5)</f>
-        <v>224</v>
-      </c>
-      <c r="AA6">
-        <f>_xlfn.BITLSHIFT(U6,10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="15"/>
-        <v>33007</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="16"/>
-        <v>80EF</v>
-      </c>
-    </row>
-    <row r="7" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
+      <c r="O8" t="s">
         <v>5</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="3"/>
-        <v>3F</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="12"/>
-        <v>00000111</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="13"/>
-        <v>00000010</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="14"/>
-        <v>00000000</v>
-      </c>
-      <c r="Y7">
-        <f>S7</f>
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <f>_xlfn.BITLSHIFT(T7,5)</f>
-        <v>64</v>
-      </c>
-      <c r="AA7">
-        <f>_xlfn.BITLSHIFT(U7,10)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="15"/>
-        <v>32839</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="16"/>
-        <v>8047</v>
-      </c>
-    </row>
-    <row r="8" spans="12:29" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" t="s">
-        <v>11</v>
-      </c>
       <c r="P8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
